--- a/biology/Médecine/Bactériologie_médicale/Bactériologie_médicale.xlsx
+++ b/biology/Médecine/Bactériologie_médicale/Bactériologie_médicale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bact%C3%A9riologie_m%C3%A9dicale</t>
+          <t>Bactériologie_médicale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La bactériologie médicale est une branche de la Biologie médicale qui consiste en l'analyse de divers liquides biologiques (parfois de tissus) dans le but d'isoler et/ou de caractériser une ou des bactéries pouvant être responsables de la pathologie suspectée à l'aide de techniques directes ou indirectes.
 En fonction de la bactérie suspectée, un ou des prélèvements particuliers devront être réalisés dans le but d'isoler au mieux cette bactérie et ainsi de poser un diagnostic le plus fiable possible et, après la réalisation ou non d'un antibiogramme, de traiter au mieux la pathologie engendrée par des antibiotiques. Chaque résultat devra être contrôlé et si possible interprété par un Biologiste médical.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bact%C3%A9riologie_m%C3%A9dicale</t>
+          <t>Bactériologie_médicale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Préalables indispensables</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pouvoir pathogène d'un germe est quelque chose de relatif dépendant bien sûr de la bactérie elle-même, mais aussi, du produit à partir duquel elle a été isolée, en quelle quantité et de l'état du porteur également (la personne chez laquelle on a isolé cette bactérie).
 S'il existe des germes spécifiquement pathogènes, on rencontre également beaucoup de germes saprophytes ou commensaux normalement non pathogènes mais qui peuvent le devenir dans certains cas ou dans certaines circonstances.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bact%C3%A9riologie_m%C3%A9dicale</t>
+          <t>Bactériologie_médicale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,32 +562,241 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Coques Gram positifs
-Staphylocoques
+          <t>Coques Gram positifs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Staphylocoques
 Microcoques
 Streptocoques
-Entérocoques
-Coques Gram négatifs ou Neisserias
-Neisseria meningitidis
-Neisseria gonorrhoeae ou gonocoques
-Bacille Gram Positif sporulé aérobie
-Bacillus anthracis, responsable du "Charbon"
-Bacilles Gram positifs sporulés anaérobies ou Clostridium
-Clostridium botulinum, responsable du botulisme
+Entérocoques</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bactériologie_médicale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9riologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Bactéries pathogènes pour l'homme</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Coques Gram négatifs ou Neisserias</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Neisseria meningitidis
+Neisseria gonorrhoeae ou gonocoques</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bactériologie_médicale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9riologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Bactéries pathogènes pour l'homme</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bacille Gram Positif sporulé aérobie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bacillus anthracis, responsable du "Charbon"</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bactériologie_médicale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9riologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Bactéries pathogènes pour l'homme</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bacilles Gram positifs sporulés anaérobies ou Clostridium</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Clostridium botulinum, responsable du botulisme
 Clostridium tetani, responsable du tétanos
-Gangrène gazeuse due à différents clostridium, mais surtout le Clostridium perfringens dans 95 % des cas.
-Bacilles Gram Positifs non sporulés
-Corynebacterium diphtheriae, responsable de la diphtérie
+Gangrène gazeuse due à différents clostridium, mais surtout le Clostridium perfringens dans 95 % des cas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bactériologie_médicale</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9riologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Bactéries pathogènes pour l'homme</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bacilles Gram Positifs non sporulés</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Corynebacterium diphtheriae, responsable de la diphtérie
 Listéria
 Erysipelothrix rhusiopathiae (rouget)
 Actinomycètes
-Lactobacilles
-Mycobactéries
-Mycobacterium tuberculosis, agent de la tuberculose
+Lactobacilles</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bactériologie_médicale</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9riologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Bactéries pathogènes pour l'homme</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Mycobactéries</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Mycobacterium tuberculosis, agent de la tuberculose
 Mycobactéries atypiques
-Mycobacterium leprae ou bacille de la lèpre
-Bacilles gram négatifs
-Entérobactéries
+Mycobacterium leprae ou bacille de la lèpre</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bactériologie_médicale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9riologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Bactéries pathogènes pour l'homme</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bacilles gram négatifs</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Entérobactéries
 Citrobacter
 Coliformes dont Escherichia coli
 Enterobacter
@@ -605,157 +828,681 @@
 Haemophilus
 Haemophilus influenzae
 Haemophilus ducreyi
-Legionella
-Les vibrions
-Vibrio cholerae, responsable du choléra
+Legionella</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bactériologie_médicale</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9riologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Bactéries pathogènes pour l'homme</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Les vibrions</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Vibrio cholerae, responsable du choléra
 Vibrio parahaemolyticus
-Campylobacter fetus ou Vibrio fœtus
-Les Spirochètes
-Tréponème de la syphilis
+Campylobacter fetus ou Vibrio fœtus</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bactériologie_médicale</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9riologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Bactéries pathogènes pour l'homme</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Les Spirochètes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Tréponème de la syphilis
 Tréponème du pian
 Borrelia
-Leptospire ictéro-hémorragique
-Les mycoplasma
-Mycoplasma pneumoniae
-Les rickettsia
-Rickettsia prowazekii
+Leptospire ictéro-hémorragique</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bactériologie_médicale</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9riologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Bactéries pathogènes pour l'homme</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Les mycoplasma</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Mycoplasma pneumoniae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Bactériologie_médicale</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9riologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Bactéries pathogènes pour l'homme</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Les rickettsia</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Rickettsia prowazekii
 Rickettsia mosseri
 Rickettsia conorii
-Rickettsia rickettsii
-Microorganismes autrefois classés parmi les rickettsies
-Orientia tsutsugamushi
-Coxiella burneti
-Les chlamydia
-Chlamydia trachomatis</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bact%C3%A9riologie_m%C3%A9dicale</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9riologie_m%C3%A9dicale</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Rickettsia rickettsii</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Bactériologie_médicale</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9riologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Bactéries pathogènes pour l'homme</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Microorganismes autrefois classés parmi les rickettsies</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Orientia tsutsugamushi
+Coxiella burneti</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Bactériologie_médicale</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9riologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Bactéries pathogènes pour l'homme</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Les chlamydia</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Chlamydia trachomatis</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Bactériologie_médicale</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9riologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Choix du milieu</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Produits ouverts
-Les milieux liquides sont a priori à proscrire car ils faussent complètement la notion numérique (il faut essayer de respecter la proportion des germes). Dans certains cas cependant, on utilise un milieu liquide car un germe peut pousser dans un milieu liquide alors qu'il ne pousserait pas sur un milieu solide. On utilise aussi des milieux liquides comme milieu d'enrichissement lorsqu'on recherche un germe bien spécifique (par exemple Salmonella).
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Produits ouverts</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les milieux liquides sont a priori à proscrire car ils faussent complètement la notion numérique (il faut essayer de respecter la proportion des germes). Dans certains cas cependant, on utilise un milieu liquide car un germe peut pousser dans un milieu liquide alors qu'il ne pousserait pas sur un milieu solide. On utilise aussi des milieux liquides comme milieu d'enrichissement lorsqu'on recherche un germe bien spécifique (par exemple Salmonella).
 Dans la plupart des cas, il faut faire un isolement : l'ensemencement sur boîte de Petri est la technique habituelle.
-Produits de cavités fermées
-Il faut s'adresser également à un milieu liquide permettant un ensemencement beaucoup plus massif (si le produit contient peu de germes) ; d'autre part, on s'attend normalement à une culture mono-microbienne. Un très bel exemple est celui de l'hémoculture où on ensemence 10  à   20 cm3 de sang.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bact%C3%A9riologie_m%C3%A9dicale</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9riologie_m%C3%A9dicale</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Bactériologie_médicale</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9riologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Choix du milieu</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Produits de cavités fermées</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il faut s'adresser également à un milieu liquide permettant un ensemencement beaucoup plus massif (si le produit contient peu de germes) ; d'autre part, on s'attend normalement à une culture mono-microbienne. Un très bel exemple est celui de l'hémoculture où on ensemence 10  à   20 cm3 de sang.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Bactériologie_médicale</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9riologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Urines</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Prélèvement
-L'aspect qualitatif joue un rôle très important surtout que maintenant on évite le prélèvement des urines par sondage. Pour les urines, il existe en effet 3 modes de prélèvement:
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Prélèvement</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>L'aspect qualitatif joue un rôle très important surtout que maintenant on évite le prélèvement des urines par sondage. Pour les urines, il existe en effet 3 modes de prélèvement:
 sondage : pas de contamination mais risque important d'infections iatrogènes. D'où ce mode de prélèvement est de plus en plus déconseillé.
 ponction sus-pubienne : méthode excellente mais elle reste une méthode d'exception
 urines émises à la miction après nettoyage soigneux des organes génitaux : c'est la méthode la plus utilisée cependant les germes de souillure sont souvent identiques aux germes retrouvés, d'où le recours à la numération pour interpréter la présence du germe identifié.
 La règle de Kass est valable à condition de ne pas l'appliquer sans nuance :
 moins de 10 000 germes/ml : non pathologique
 10 000 -  100 000 germes/ml : discutable
-plus de 100 000 germes/ml : infection ou menace d'infection urinaire
-Nature des germes
-Germes intestinaux
-Entérobactéries - entérocoques - streptocoque B = germes d'origine basse responsables d'infections ascendantes (cystite puis pyélite).
-Germes d'origine hématogène
-ex. : Staphylocoques responsables d'infection descendante.
-Germes opportunistes
-Chez des opérés, des personnes porteuses d'une sonde à demeure…
+plus de 100 000 germes/ml : infection ou menace d'infection urinaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Bactériologie_médicale</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9riologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Urines</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Nature des germes</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Germes intestinaux</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entérobactéries - entérocoques - streptocoque B = germes d'origine basse responsables d'infections ascendantes (cystite puis pyélite).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Bactériologie_médicale</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9riologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Urines</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Nature des germes</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Germes d'origine hématogène</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ex. : Staphylocoques responsables d'infection descendante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Bactériologie_médicale</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9riologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Urines</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Nature des germes</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Germes opportunistes</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez des opérés, des personnes porteuses d'une sonde à demeure…
 ex. : Pseudomonas et occasionnellement d'autres germes non fermentants.
-Pyurie
-Une pyurie doit toujours nous forcer à admettre qu'il y a infection. Si, lors d'une pyurie, on ne retrouve pas de germe après l'examen bactériologique normal, il faut absolument faire une recherche de BK par la coloration de Ziehl même si le clinicien ne le demande pas : on peut ainsi détecter une tuberculose rénale.
-Schéma d'examen bactériologique des urines en routine
-Examen direct sur urine non centrifugée
-Cet examen donne une appréciation quantitative et permet de voir si le germe est Gram + ou Gram -. Attention : dans l'urine, les gram - se décolorent mal surtout s'il y a trop d'urines → Gram effectué à partir d'une anse et non d'une pipette.
-Mise en culture
-Il s'agit d'un schéma choisi parmi d'autres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Bactériologie_médicale</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9riologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Urines</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Nature des germes</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Pyurie</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une pyurie doit toujours nous forcer à admettre qu'il y a infection. Si, lors d'une pyurie, on ne retrouve pas de germe après l'examen bactériologique normal, il faut absolument faire une recherche de BK par la coloration de Ziehl même si le clinicien ne le demande pas : on peut ainsi détecter une tuberculose rénale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Bactériologie_médicale</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9riologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Urines</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Schéma d'examen bactériologique des urines en routine</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Examen direct sur urine non centrifugée</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet examen donne une appréciation quantitative et permet de voir si le germe est Gram + ou Gram -. Attention : dans l'urine, les gram - se décolorent mal surtout s'il y a trop d'urines → Gram effectué à partir d'une anse et non d'une pipette.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Bactériologie_médicale</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9riologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Urines</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Schéma d'examen bactériologique des urines en routine</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Mise en culture</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un schéma choisi parmi d'autres.
 Gélose lactosée au pourpre de bromocrésol (BCP).
 Le BCP est un des seuls milieux ne contenant pas de NaCl. D'où on bénéficie d'une inhibition relative du Proteus pour ne pas avoir un envahissement de la gélose par ce germe. Le bromocrésol permet de faire la distinction entre germes lactose + ou lactose - (cela oriente déjà un petit peu pour les entérobactéries. L'ensemencement se fait de manière quantitative par le procédé Dip-slide intéressant pour le médecin généraliste : il s'agit d'un flacon contenant une lame porte-objet dont les 2 faces sont recouvertes de milieux de culture gélosés différents : l'un est sélectif, l'autre pas. Ce procédé évite le transport de l'échantillon et préserve la notion quantitative.
 Milieu de Mac Conkey (MC)
 Le MC est un milieu sélectif laissant pousser uniquement les Gram - :
 colonies rouges = lactose + ; colonies incolores = lactose - ; à partir de chaque type de colonies, on réalisera une galerie d'identification.
-Antibiogramme direct
-L'urine est un des rares produits se prêtant bien à un antibiogramme direct. De plus, l'antibiogramme constitue un milieu supplémentaire et il peut apporter quelques renseignements pour l'identification. (p. ex. un germe lactose - résistant aux tétracyclines, à la colimycine et à la furadantine est un proteus ; un germe lactose +, muqueux, résistant à l'ampicilline est une Klebsiella.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Bactériologie_médicale</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9riologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Urines</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Schéma d'examen bactériologique des urines en routine</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Antibiogramme direct</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>L'urine est un des rares produits se prêtant bien à un antibiogramme direct. De plus, l'antibiogramme constitue un milieu supplémentaire et il peut apporter quelques renseignements pour l'identification. (p. ex. un germe lactose - résistant aux tétracyclines, à la colimycine et à la furadantine est un proteus ; un germe lactose +, muqueux, résistant à l'ampicilline est une Klebsiella.
 Pour l'ensemencement, il faut se baser sur l'examen direct : 
 si l'urine est claire et ne montre que quelques germe à l'examen direct, on ne fera pas d'antibiogramme direct
 il faut un ensemencement + ou - standardisé : on dilue au moins une fois par nombre de germes vus par champ à l'examen direct (grossissement = 100). Ainsi, si 50 g./champ, on diluera l'urine 50 ou même 100 fois.</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Bact%C3%A9riologie_m%C3%A9dicale</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9riologie_m%C3%A9dicale</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Bactériologie_médicale</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9riologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Expectorations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Examen bactériologique le plus décevant et le plus difficile
-Dans de nombreux cas, on ne trouve rien au point de vue bactériologique ou bien on trouve un germe n'ayant pas de signification. S'il y a réellement une infection pulmonaire, on peut envisager que l'agent responsable est :
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Examen bactériologique le plus décevant et le plus difficile</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Dans de nombreux cas, on ne trouve rien au point de vue bactériologique ou bien on trouve un germe n'ayant pas de signification. S'il y a réellement une infection pulmonaire, on peut envisager que l'agent responsable est :
 un virus,
 un mycoplasme
 un germe profond qu'on ne parvient pas à mettre en évidence
@@ -763,31 +1510,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Bact%C3%A9riologie_m%C3%A9dicale</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9riologie_m%C3%A9dicale</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Bactériologie_médicale</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9riologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Principaux groupes d'antibiotiques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t>Béta-lactamines :
 Pénicillines
@@ -804,37 +1553,72 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Bact%C3%A9riologie_m%C3%A9dicale</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9riologie_m%C3%A9dicale</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Bactériologie_médicale</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9riologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>Tableau récapitulatif</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Voici une liste de bactéries impliquées dans la plupart des maladies infectieuses bactériennes chez l'homme.
-Bactéries aérobies
-Bactéries anaérobies
-Autres bactéries
-Attention aux confusions :	
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voici une liste de bactéries impliquées dans la plupart des maladies infectieuses bactériennes chez l'homme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Bactériologie_médicale</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9riologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Tableau récapitulatif</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Autres bactéries</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Attention aux confusions :	
 mycoplasme ≠ mycobactérie
 entérocoques(CG+) ≠ entérobactérie (BGN)</t>
         </is>
